--- a/src/resources/form/DsDichVu.xlsx
+++ b/src/resources/form/DsDichVu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HUST\IT3150 Project I - CNPM\De tai Nhom\QuanLyKhachSan\src\resources\form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C07C8A-C389-4436-91AA-61BAAAE5EC92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EB9427-0267-4FCE-91EF-8A0F4330D818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2A146871-5C2D-436F-A271-0B59F7EFC1E3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM
 Độc lập - Tự do – Hạnh phúc
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Khách sạn</t>
   </si>
   <si>
     <t>TỔNG HỢP THÔNG TIN DỊCH VỤ</t>
@@ -145,6 +142,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -153,9 +153,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -172,6 +169,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>556591</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>521086</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image result for hotel logo&quot;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9610CB6-17CA-405D-83A6-C865D9B182EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1311965" y="0"/>
+          <a:ext cx="938530" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,7 +532,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,15 +545,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -508,22 +561,22 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -537,13 +590,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
@@ -558,5 +611,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/resources/form/DsDichVu.xlsx
+++ b/src/resources/form/DsDichVu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HUST\IT3150 Project I - CNPM\De tai Nhom\QuanLyKhachSan\src\resources\form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EB9427-0267-4FCE-91EF-8A0F4330D818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4CCAB0-BC8B-4043-A084-F3C34A6DAB0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2A146871-5C2D-436F-A271-0B59F7EFC1E3}"/>
+    <workbookView xWindow="-19320" yWindow="-10830" windowWidth="19440" windowHeight="15150" xr2:uid="{2A146871-5C2D-436F-A271-0B59F7EFC1E3}"/>
   </bookViews>
   <sheets>
     <sheet name="DsDichVu" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM
 Độc lập - Tự do – Hạnh phúc
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Giá tiền</t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
   </si>
 </sst>
 </file>
@@ -182,9 +185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>521086</xdr:colOff>
+      <xdr:colOff>517276</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>504825</xdr:rowOff>
+      <xdr:rowOff>506730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -529,10 +532,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,11 +543,11 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="3" max="3" width="33.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -552,15 +555,17 @@
         <v>0</v>
       </c>
       <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -568,8 +573,9 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -577,15 +583,17 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -599,15 +607,18 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
